--- a/src/analysis_examples/circadb/results_jtk/cosinor_10523579_arhgap24_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10523579_arhgap24_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.19634398022719313, 0.32463185998027855]</t>
+          <t>[0.196837270856959, 0.32413856935051266]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.418586369541288e-08</v>
+        <v>3.01079028375284e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.418586369541288e-08</v>
+        <v>3.01079028375284e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467711</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.0943686120613103, -0.6163685286322318]</t>
+          <t>[-1.0943686120613094, -0.6163685286322327]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.39164585788738543, 0.45668920324623435]</t>
+          <t>[0.39162212746448416, 0.4567129336691356]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.437437437437552</v>
       </c>
       <c r="X2" t="n">
-        <v>2.476976976977058</v>
+        <v>2.476976976977062</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.397897897898045</v>
+        <v>4.397897897898042</v>
       </c>
     </row>
   </sheetData>
